--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BioGears\biogears\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5355,10 +5355,10 @@
   <dimension ref="A1:HF86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BV18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD33" sqref="AD33"/>
+      <selection pane="bottomRight" activeCell="CD56" sqref="CD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -22502,7 +22502,7 @@
       <c r="CB56" s="111"/>
       <c r="CC56" s="111"/>
       <c r="CD56" s="111">
-        <v>-0.55000000000000004</v>
+        <v>-0.75</v>
       </c>
       <c r="CE56" s="111"/>
       <c r="CF56" s="111"/>
